--- a/doc/ButtonVals.xlsx
+++ b/doc/ButtonVals.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonah\Projects\HeadlampV3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonah\Projects\tinylamp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D59C1DF-9F4E-49EF-8F3F-A60C841D7FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF3932-0060-4818-8839-3AC5F6C9C780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F215D885-FB87-45D7-A715-0251A98C2B6A}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{F215D885-FB87-45D7-A715-0251A98C2B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -167,29 +168,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
